--- a/DOM_Banner/output/dept0713/Fariba Donovan_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Fariba Donovan_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297259965</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Immunogenetics associated with severe coccidioidomycosis</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-11-22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>JCI insight</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Society for Clinical Investigation</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1172/jci.insight.159491</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36166305</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1172/jci.insight.159491</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Internal Medicine, Division of Infectious Diseases and the Department of Medical Microbiology and Immunology, University of California-Davis Medical Center;  Sacramento, CA  USA.; University of California - Davis Center for Valley Fever, Sacramento, CA  USA.; Division of Infectious Diseases, Mayo Clinic in Arizona,  Phoenix, AZ,  USA.; University of Arizona College of Medicine,  Tucson, AZ,  USA.; Division of Infectious Diseases, Mayo Clinic in Arizona,  Phoenix, AZ,  USA.; University of Arizona College of Medicine,  Tucson, AZ,  USA.; Division of Infectious Disease, Department of Medicine, University of California San Diego School of Medicine, La Jolla, CA,  USA.; Infectious Diseases Section, VA Healthcare San Diego,  San Diego, CA, USA.; University of Arizona College of Medicine,  Tucson, AZ,  USA.; Division of Infectious Diseases, Department of Medicine, David Geffen School of Medicine at UCLA, Kern Medical,  Bakersfield, CA, USA.; Division of Infectious Diseases, Department of Medicine, David Geffen School of Medicine at UCLA, Kern Medical,  Bakersfield, CA, USA.; Good Samaritan Hospital, San Jose, CA,  USA.; Department of Neurosurgery, Scripps Clinic and Scripps Green Hospital, La Jolla, CA, USA.; California Institute for Medical Research, San Jose, CA, USA.; Division of Infectious Diseases and Geographic Medicine, Department of Medicine, Stanford University School of Medicine, Stanford, CA, USA.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283122802</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Controversies in the Management of Central Nervous System Coccidioidomycosis</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-06-19</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Clinical Infectious Diseases</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciac478</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35717645</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciac478</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States; Valley Fever Center for Excellence, University of Arizona, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210282942</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>TNFα Blockade Inhibits Both Initial and Continued Control of Pulmonary Coccidioides</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-01-31</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Frontiers in Cellular and Infection Microbiology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Frontiers Media</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcimb.2021.796114</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35174101</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.3389/fcimb.2021.796114</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4280653334</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Cross-Sectional Study of Clinical Predictors of Coccidioidomycosis, Arizona, USA</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Emerging Infectious Diseases</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Centers for Disease Control and Prevention</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3201/eid2806.212311</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35608552</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.3201/eid2806.212311</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>The Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, Arizona, USA; Department of Epidemiology and Biostatistics, University of Arizona College of Public Health, Tucson, Arizona, USA; The University of Arizona College of Medicine-Tucson, Tucson, Arizona, USA; The University of Arizona College of Medicine-Tucson, Tucson, Arizona, USA; University of Arizona College of Medicine–Phoenix, Phoenix, Arizona, USA; The University of Arizona College of Medicine-Tucson, Tucson, Arizona, USA; The University of Arizona College of Medicine-Tucson, Tucson, Arizona, USA; The University of Arizona College of Medicine-Tucson, Tucson, Arizona, USA; A. T. Still University School of Osteopathic Medicine, Mesa, Arizona, USA; Department of Epidemiology and Biostatistics, University of Arizona College of Public Health, Tucson, Arizona, USA; The Valley Fever Center for Excellence, University of Arizona College of Medicine-Tucson, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4210812635</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Contribution of Biologic Response Modifiers to the Risk of Coccidioidomycosis Severity</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-01-27</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac032</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35169593</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac032</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Fariba Donovan_2022.xlsx
+++ b/DOM_Banner/output/dept0713/Fariba Donovan_2022.xlsx
@@ -447,12 +447,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Amy P. Hsu, Agnieszka Korzeniowska, Cynthia C Aguilar, Jiande Gu, Eric Karlins, Andrew J. Oler, Gang Chen, Glennys V. Reynoso, Joie Davis, Alexandria Laurel Chaput, Tao Peng, Ling Sun, Justin Lack, Derek Bays, Ethan R. Stewart, Sarah Waldman, Daniel A. Powell, Fariba M. Donovan, Jigar V. Desai, Nima Pouladi, Debra A. Long Priel, Daisuke Yamanaka, Sergio D. Rosenzweig, Julie E. Niemela, Jennifer Stoddard, Alexandra F. Freeman, Christa S. Zerbe, Douglas B. Kuhns, Yves A. Lussier, Kenneth N. Olivier, Richard C. Boucher, Heather D. Hickman, Jeffrey A. Frelinger, Joshua Fierer, Lisa F. Shubitz, Thomas L. Leto, George R. Thompson, John N. Galgiani, Michail S Lionakis, Steven M. Holland</t>
+          <t>Amy P. Hsu, Agnieszka Korzeniowska, Cynthia C Aguilar, Jiande Gu, Eric Karlins, Andrew J. Oler, Gang Chen, Glennys V. Reynoso, Joie Davis, Alexandria Laurel Chaput, Tao Peng, Ling Sun, Justin Lack, Derek J Bays, Ethan R. Stewart, Sarah Waldman, Daniel A. Powell, Fariba M. Donovan, Jigar V. Desai, Nima Pouladi, Debra A. Long Priel, Daisuke Yamanaka, Sergio D. Rosenzweig, Julie E. Niemela, Jennifer Stoddard, Alexandra F. Freeman, Christa S. Zerbe, Douglas B. Kuhns, Yves A. Lussier, Kenneth N. Olivier, Richard C. Boucher, Heather D. Hickman, Jeffrey A. Frelinger, Joshua Fierer, Lisa F. Shubitz, Thomas L. Leto, George R. Thompson, John N. Galgiani, Michail S Lionakis, Steven M. Holland</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Department of Cell Biology and Molecular Genetics, University of Maryland, College Park, Maryland, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; ; ; ; Marsico Lung Institute and Cystic Fibrosis Research Center, University of North Carolina at Chapel Hill, Chapel Hill, North Carolina, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Valley Fever Center for Excellence, University of Arizona College of Medicine–Tucson, Tucson, Arizona, USA.; Valley Fever Center for Excellence, University of Arizona College of Medicine–Tucson, Tucson, Arizona, USA.; Department of Respiratory and Critical Care Medicine, Laboratory of Pulmonary Immunology and Inflammation, West China Hospital, Sichuan University, Chengdu, Sichuan Province, China.; Marsico Lung Institute and Cystic Fibrosis Research Center, University of North Carolina at Chapel Hill, Chapel Hill, North Carolina, USA.; Advanced Biomedical Computational Science, Frederick National Laboratory for Cancer Research, Leidos Biomedical Research, Inc., Frederick, Maryland, USA.; NIAID Collaborative Bioinformatics Resource, NIAID, NIH, Bethesda, Maryland, USA.; Department of Internal Medicine, Division of Infectious Diseases, UC Davis Health, Sacramento, California, USA.; Department of Internal Medicine, Division of Infectious Diseases, UC Davis Health, Sacramento, California, USA.; Department of Internal Medicine, Division of Infectious Diseases, UC Davis Health, Sacramento, California, USA.; Department of Immunobiology, University of Arizona, Tucson, Arizona, USA.; Valley Fever Center for Excellence, University of Arizona College of Medicine–Tucson, Tucson, Arizona, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Center for Biomedical Informatics and Biostatistics and; The Center for Applied Genetics and Genomic Medicine, Department of Medicine, University of Arizona, Tucson, Arizona, USA.; Neutrophil Monitoring Laboratory, Applied/Developmental Research Directorate, Leidos Biomedical Research, Inc, Frederick National Laboratory for Cancer Research, Frederick, Maryland, USA.; Laboratory for Immunopharmacology of Microbial Products, School of Pharmacy, Tokyo University of Pharmacy and Life Sciences, Hachioji, Tokyo, Japan.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; ; ; ; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Neutrophil Monitoring Laboratory, Applied/Developmental Research Directorate, Leidos Biomedical Research, Inc, Frederick National Laboratory for Cancer Research, Frederick, Maryland, USA.; Center for Biomedical Informatics and Biostatistics and; The Center for Applied Genetics and Genomic Medicine, Department of Medicine, University of Arizona, Tucson, Arizona, USA.; Laboratory of Chronic Airway Infection, Pulmonary Branch, National Heart, Lung, and Blood Institute, NIH, Bethesda, Maryland, USA.; Marsico Lung Institute and Cystic Fibrosis Research Center, University of North Carolina at Chapel Hill, Chapel Hill, North Carolina, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Department of Immunobiology, University of Arizona, Tucson, Arizona, USA.; Division of Infectious Diseases, Departments of Pathology and Medicine, School of Medicine, University of California San Diego, La Jolla, California, USA.; VA HealthCare San Diego, San Diego, California, USA.; Valley Fever Center for Excellence, University of Arizona College of Medicine–Tucson, Tucson, Arizona, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Department of Medical Microbiology and Immunology, University of California Davis, Davis, California, USA.; Valley Fever Center for Excellence, University of Arizona College of Medicine–Tucson, Tucson, Arizona, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.; Laboratory of Clinical Immunology and Microbiology, National Institute of Allergy and Infectious Diseases (NIAID), NIH, Bethesda, Maryland, USA.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
